--- a/Applications/ConsumerApi/test/ConsumerApi.Tests.Performance/tools/snapshot-creator-v2/Docs/Proof_RelationshipsAndMessage.test.xlsx
+++ b/Applications/ConsumerApi/test/ConsumerApi.Tests.Performance/tools/snapshot-creator-v2/Docs/Proof_RelationshipsAndMessage.test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev-js\backbone\Applications\ConsumerApi\test\ConsumerApi.Tests.Performance\tools\snapshot-creator-v2\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D464F8E-4D4E-4377-B4D7-589AAFB279B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671B1810-549B-48A9-8813-84B691165EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" tabRatio="139" firstSheet="1" activeTab="2" xr2:uid="{92C40C20-5DD5-42C1-8294-9AF7E00B4BE7}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="31515" windowHeight="13230" tabRatio="139" firstSheet="1" activeTab="2" xr2:uid="{92C40C20-5DD5-42C1-8294-9AF7E00B4BE7}"/>
   </bookViews>
   <sheets>
     <sheet name="heavy" sheetId="1" r:id="rId1"/>
@@ -831,7 +831,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -902,31 +902,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -936,11 +923,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -951,9 +936,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -4134,8 +4119,8 @@
   <dimension ref="A1:X126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4293,7 +4278,7 @@
       </c>
       <c r="T2" s="12">
         <f>D3*F3+D4*F4+D5*F5</f>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="U2" s="12">
         <f>D6*H6+D7*H7+D8*H8</f>
@@ -4309,7 +4294,7 @@
       </c>
       <c r="X2" s="12">
         <f>D6*F6+D7*F7+D8*F8</f>
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
@@ -4431,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="15">
@@ -4598,7 +4583,7 @@
       </c>
       <c r="F8" s="3">
         <f>_xlfn.CEILING.MATH((D3*F3+D4*F4+D5*F5)/(D8)*G8)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8" s="13">
         <v>0.75</v>
@@ -4701,367 +4686,324 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B13" s="45"/>
-      <c r="C13" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="47">
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="6">
         <f>D3</f>
         <v>1</v>
       </c>
-      <c r="E13" s="47">
+      <c r="E13" s="6">
         <f>H3</f>
         <v>0</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13">
         <f>D13*E13</f>
         <v>0</v>
       </c>
-      <c r="G13" s="48">
+      <c r="G13" s="2">
         <f>F3</f>
         <v>1</v>
       </c>
-      <c r="H13" s="46"/>
-      <c r="I13" s="49">
+      <c r="I13" s="19">
         <f>E13/G13</f>
         <v>0</v>
       </c>
-      <c r="J13" s="50">
+      <c r="J13" s="46">
         <f>MOD(E13,G13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B14" s="45"/>
-      <c r="C14" s="46" t="s">
+      <c r="C14" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="47">
+      <c r="D14" s="6">
         <f>D4</f>
         <v>3</v>
       </c>
-      <c r="E14" s="47">
+      <c r="E14" s="6">
         <f>H4</f>
         <v>4</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14">
         <f>D14*E14</f>
         <v>12</v>
       </c>
-      <c r="G14" s="48">
+      <c r="G14" s="2">
         <f>F4</f>
         <v>2</v>
       </c>
-      <c r="H14" s="46"/>
-      <c r="I14" s="49">
+      <c r="I14" s="19">
         <f>_xlfn.FLOOR.MATH(E14/G14)</f>
         <v>2</v>
       </c>
-      <c r="J14" s="50">
+      <c r="J14" s="46">
         <f>MOD(E14,G14)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B15" s="45"/>
-      <c r="C15" s="46" t="s">
+      <c r="C15" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="47">
+      <c r="D15" s="6">
         <f>D5</f>
         <v>3</v>
       </c>
-      <c r="E15" s="47">
+      <c r="E15" s="6">
         <f>H5</f>
         <v>12</v>
       </c>
-      <c r="F15" s="46">
+      <c r="F15">
         <f>D15*E15</f>
         <v>36</v>
       </c>
-      <c r="G15" s="48">
+      <c r="G15" s="2">
         <f>F5</f>
-        <v>5</v>
-      </c>
-      <c r="H15" s="46"/>
-      <c r="I15" s="49">
+        <v>4</v>
+      </c>
+      <c r="I15" s="19">
         <f>_xlfn.FLOOR.MATH(E15/G15)</f>
-        <v>2</v>
-      </c>
-      <c r="J15" s="50">
+        <v>3</v>
+      </c>
+      <c r="J15" s="46">
         <f>MOD(E15,G15)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B16" s="45"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="51">
+      <c r="F16" s="23">
         <f>SUM(F13:F15)</f>
         <v>48</v>
       </c>
-      <c r="G16" s="52" t="s">
+      <c r="G16" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="H16" s="51">
+      <c r="H16" s="23">
         <f>Q2</f>
         <v>48</v>
       </c>
-      <c r="I16" s="46"/>
-      <c r="J16" s="53"/>
+      <c r="J16" s="48"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="45"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="54" t="s">
+      <c r="F17" s="23"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="J17" s="55">
+      <c r="J17" s="50">
         <f>((I15*G15+J15)*D15)+((G14*I14)+J14)*D14+((G13*I13)*J13*D13)</f>
         <v>48</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="45"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="56">
+      <c r="F18" s="26">
         <f>D13*G13+D14*G14+D15*G15</f>
-        <v>22</v>
-      </c>
-      <c r="G18" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="H18" s="56">
+      <c r="H18" s="26">
         <f>T2</f>
-        <v>22</v>
-      </c>
-      <c r="I18" s="46"/>
-      <c r="J18" s="53"/>
+        <v>19</v>
+      </c>
+      <c r="J18" s="48"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="45"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="53"/>
+      <c r="J19" s="48"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="46" t="s">
+      <c r="C20" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D20" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="58" t="s">
+      <c r="E20" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="46" t="s">
+      <c r="F20" t="s">
         <v>43</v>
       </c>
-      <c r="G20" s="59" t="s">
+      <c r="G20" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H20" s="46" t="s">
+      <c r="H20" t="s">
         <v>66</v>
       </c>
-      <c r="I20" s="46" t="s">
+      <c r="I20" t="s">
         <v>62</v>
       </c>
-      <c r="J20" s="53" t="s">
+      <c r="J20" s="48" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="45"/>
-      <c r="C21" s="46" t="s">
+      <c r="C21" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="47">
+      <c r="D21" s="6">
         <f>D6</f>
         <v>1</v>
       </c>
-      <c r="E21" s="47">
+      <c r="E21" s="6">
         <f>I6</f>
         <v>0</v>
       </c>
-      <c r="F21" s="46">
+      <c r="F21">
         <f>D21*E21</f>
         <v>0</v>
       </c>
-      <c r="G21" s="48">
+      <c r="G21" s="2">
         <f>F6</f>
         <v>1</v>
       </c>
-      <c r="H21" s="46"/>
-      <c r="I21" s="49">
+      <c r="I21" s="19">
         <f>_xlfn.FLOOR.MATH(E21/G21)</f>
         <v>0</v>
       </c>
-      <c r="J21" s="60">
+      <c r="J21" s="51">
         <f>MOD(E21,G21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="45"/>
-      <c r="C22" s="46" t="s">
+      <c r="C22" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="47">
+      <c r="D22" s="6">
         <f>D7</f>
         <v>2</v>
       </c>
-      <c r="E22" s="47">
+      <c r="E22" s="6">
         <f>I7</f>
         <v>5</v>
       </c>
-      <c r="F22" s="46">
+      <c r="F22">
         <f>D22*E22</f>
         <v>10</v>
       </c>
-      <c r="G22" s="48">
+      <c r="G22" s="2">
         <f>F7</f>
         <v>3</v>
       </c>
-      <c r="H22" s="46"/>
-      <c r="I22" s="49">
+      <c r="I22" s="19">
         <f>_xlfn.FLOOR.MATH(E22/G22)</f>
         <v>1</v>
       </c>
-      <c r="J22" s="60">
+      <c r="J22" s="51">
         <f>MOD(E22,G22)</f>
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="45"/>
-      <c r="C23" s="46" t="s">
+      <c r="C23" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="47">
+      <c r="D23" s="6">
         <f>D8</f>
         <v>4</v>
       </c>
-      <c r="E23" s="47">
+      <c r="E23" s="6">
         <f>I8</f>
         <v>9</v>
       </c>
-      <c r="F23" s="46">
+      <c r="F23">
         <f>D23*E23</f>
         <v>36</v>
       </c>
-      <c r="G23" s="48">
+      <c r="G23" s="2">
         <f>F8</f>
-        <v>5</v>
-      </c>
-      <c r="H23" s="46"/>
-      <c r="I23" s="49">
+        <v>4</v>
+      </c>
+      <c r="I23" s="19">
         <f>_xlfn.FLOOR.MATH(E23/G23)</f>
-        <v>1</v>
-      </c>
-      <c r="J23" s="60">
+        <v>2</v>
+      </c>
+      <c r="J23" s="51">
         <f>MOD(E23,G23)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="45"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="61">
+      <c r="F24" s="52">
         <f>SUM(F21:F23)</f>
         <v>46</v>
       </c>
-      <c r="G24" s="62" t="s">
+      <c r="G24" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="H24" s="46">
+      <c r="H24">
         <f>V2</f>
         <v>46</v>
       </c>
-      <c r="I24" s="49"/>
-      <c r="J24" s="53"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="48"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="45"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="46"/>
-      <c r="G25" s="54" t="s">
+      <c r="G25" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="H25" s="61">
+      <c r="H25" s="52">
         <f>W2</f>
         <v>2</v>
       </c>
-      <c r="I25" s="46"/>
-      <c r="J25" s="53"/>
+      <c r="J25" s="48"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="45"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="51">
+      <c r="H26" s="23">
         <f>SUM(H24:H25)</f>
         <v>48</v>
       </c>
-      <c r="I26" s="46"/>
-      <c r="J26" s="53"/>
+      <c r="J26" s="48"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="45"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="54" t="s">
+      <c r="H27" s="23"/>
+      <c r="I27" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="J27" s="55">
+      <c r="J27" s="50">
         <f>(G23*I23+J23)*D23+((G22*I22+J22)*D22+((G21*I21+J21)*D21))</f>
         <v>46</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B28" s="63"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="65">
+      <c r="B28" s="54"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="56">
         <f>D21*G21+D22*G22+D23*G23</f>
-        <v>27</v>
-      </c>
-      <c r="G28" s="66" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="H28" s="65">
+      <c r="H28" s="56">
         <f>X2</f>
-        <v>27</v>
-      </c>
-      <c r="I28" s="64"/>
-      <c r="J28" s="67"/>
+        <v>23</v>
+      </c>
+      <c r="I28" s="55"/>
+      <c r="J28" s="58"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F30" s="24"/>
@@ -5108,378 +5050,323 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="45"/>
-      <c r="C34" s="46" t="s">
+      <c r="C34" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="47">
+      <c r="D34" s="6">
         <f>D6</f>
         <v>1</v>
       </c>
-      <c r="E34" s="47">
+      <c r="E34" s="6">
         <f>H6</f>
         <v>0</v>
       </c>
-      <c r="F34" s="46">
+      <c r="F34">
         <f>E34*D34</f>
         <v>0</v>
       </c>
-      <c r="G34" s="47">
+      <c r="G34" s="6">
         <f>F6</f>
         <v>1</v>
       </c>
-      <c r="H34" s="46"/>
-      <c r="I34" s="46">
+      <c r="I34">
         <f>_xlfn.FLOOR.MATH(E34/G34)</f>
         <v>0</v>
       </c>
-      <c r="J34" s="50">
+      <c r="J34" s="46">
         <f>MOD(E34,G34)</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="45"/>
-      <c r="C35" s="46" t="s">
+      <c r="C35" t="s">
         <v>6</v>
       </c>
-      <c r="D35" s="47">
+      <c r="D35" s="6">
         <f>D7</f>
         <v>2</v>
       </c>
-      <c r="E35" s="47">
+      <c r="E35" s="6">
         <f>H7</f>
         <v>8</v>
       </c>
-      <c r="F35" s="46">
+      <c r="F35">
         <f>D35*E35</f>
         <v>16</v>
       </c>
-      <c r="G35" s="47">
+      <c r="G35" s="6">
         <f>F7</f>
         <v>3</v>
       </c>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46">
+      <c r="I35">
         <f>_xlfn.FLOOR.MATH(E35/G35)</f>
         <v>2</v>
       </c>
-      <c r="J35" s="50">
+      <c r="J35" s="46">
         <f>MOD(E35,G35)</f>
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="45"/>
-      <c r="C36" s="46" t="s">
+      <c r="C36" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="47">
+      <c r="D36" s="6">
         <f>D8</f>
         <v>4</v>
       </c>
-      <c r="E36" s="47">
+      <c r="E36" s="6">
         <f>H8</f>
         <v>8</v>
       </c>
-      <c r="F36" s="46">
+      <c r="F36">
         <f>D36*E36</f>
         <v>32</v>
       </c>
-      <c r="G36" s="47">
+      <c r="G36" s="6">
         <f>F8</f>
-        <v>5</v>
-      </c>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46">
+        <v>4</v>
+      </c>
+      <c r="I36">
         <f>_xlfn.FLOOR.MATH(E36/G36)</f>
-        <v>1</v>
-      </c>
-      <c r="J36" s="50">
+        <v>2</v>
+      </c>
+      <c r="J36" s="46">
         <f>MOD(E36,G36)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="45"/>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="51">
+      <c r="F37" s="23">
         <f>SUM(F34:F36)</f>
         <v>48</v>
       </c>
-      <c r="G37" s="52" t="s">
+      <c r="G37" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="H37" s="51">
+      <c r="H37" s="23">
         <f>U2</f>
         <v>48</v>
       </c>
-      <c r="I37" s="46"/>
-      <c r="J37" s="53"/>
+      <c r="J37" s="48"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="45"/>
-      <c r="C38" s="46"/>
-      <c r="D38" s="46"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46"/>
-      <c r="H38" s="46"/>
-      <c r="I38" s="54" t="s">
+      <c r="I38" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="J38" s="55">
+      <c r="J38" s="50">
         <f>(D34*(G34*I34+J34))+(D35*(G35*I35+J35)+(D36*(G36*I36+J36)))</f>
         <v>48</v>
       </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" s="45"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="68">
+      <c r="F39" s="24">
         <f>D34*G34+D35*G35+D36*G36</f>
-        <v>27</v>
-      </c>
-      <c r="G39" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="H39" s="68">
+      <c r="H39" s="24">
         <f>X2</f>
-        <v>27</v>
-      </c>
-      <c r="I39" s="46"/>
-      <c r="J39" s="53"/>
+        <v>23</v>
+      </c>
+      <c r="J39" s="48"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="45"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="53"/>
+      <c r="J40" s="48"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" s="45"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="53"/>
+      <c r="J41" s="48"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="46" t="s">
+      <c r="C42" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="46" t="s">
+      <c r="D42" t="s">
         <v>42</v>
       </c>
-      <c r="E42" s="58" t="s">
+      <c r="E42" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F42" s="46" t="s">
+      <c r="F42" t="s">
         <v>43</v>
       </c>
-      <c r="G42" s="59" t="s">
+      <c r="G42" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H42" s="46" t="s">
+      <c r="H42" t="s">
         <v>66</v>
       </c>
-      <c r="I42" s="46" t="s">
+      <c r="I42" t="s">
         <v>62</v>
       </c>
-      <c r="J42" s="53" t="s">
+      <c r="J42" s="48" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="45"/>
-      <c r="C43" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="47">
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="6">
         <f>D3</f>
         <v>1</v>
       </c>
-      <c r="E43" s="47">
+      <c r="E43" s="6">
         <f>I3</f>
         <v>0</v>
       </c>
-      <c r="F43" s="46">
+      <c r="F43">
         <f>D43*E43</f>
         <v>0</v>
       </c>
-      <c r="G43" s="47">
+      <c r="G43" s="6">
         <f>F3</f>
         <v>1</v>
       </c>
-      <c r="H43" s="46"/>
-      <c r="I43" s="46">
+      <c r="I43">
         <f>_xlfn.FLOOR.MATH(E43/G43)</f>
         <v>0</v>
       </c>
-      <c r="J43" s="50">
+      <c r="J43" s="46">
         <f>MOD(E43,G43)</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="45"/>
-      <c r="C44" s="46" t="s">
+      <c r="C44" t="s">
         <v>3</v>
       </c>
-      <c r="D44" s="47">
+      <c r="D44" s="6">
         <f>D4</f>
         <v>3</v>
       </c>
-      <c r="E44" s="47">
+      <c r="E44" s="6">
         <f>I4</f>
         <v>4</v>
       </c>
-      <c r="F44" s="46">
+      <c r="F44">
         <f>D44*E44</f>
         <v>12</v>
       </c>
-      <c r="G44" s="47">
+      <c r="G44" s="6">
         <f>F4</f>
         <v>2</v>
       </c>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46">
+      <c r="I44">
         <f>_xlfn.FLOOR.MATH(E44/G44)</f>
         <v>2</v>
       </c>
-      <c r="J44" s="50">
+      <c r="J44" s="46">
         <f>MOD(E44,G44)</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" s="45"/>
-      <c r="C45" s="46" t="s">
+      <c r="C45" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="47">
+      <c r="D45" s="6">
         <f>D5</f>
         <v>3</v>
       </c>
-      <c r="E45" s="47">
+      <c r="E45" s="6">
         <f>I5</f>
         <v>11</v>
       </c>
-      <c r="F45" s="46">
+      <c r="F45">
         <f>D45*E45</f>
         <v>33</v>
       </c>
-      <c r="G45" s="47">
+      <c r="G45" s="6">
         <f>F5</f>
-        <v>5</v>
-      </c>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46">
+        <v>4</v>
+      </c>
+      <c r="I45">
         <f>_xlfn.FLOOR.MATH(E45/G45)</f>
         <v>2</v>
       </c>
-      <c r="J45" s="50">
+      <c r="J45" s="46">
         <f>MOD(E45,G45)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" s="45"/>
-      <c r="C46" s="46"/>
-      <c r="D46" s="46"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="51">
+      <c r="F46" s="23">
         <f>SUM(F43:F45)</f>
         <v>45</v>
       </c>
-      <c r="G46" s="46" t="s">
+      <c r="G46" t="s">
         <v>68</v>
       </c>
-      <c r="H46" s="51">
+      <c r="H46" s="23">
         <f>R2</f>
         <v>45</v>
       </c>
-      <c r="I46" s="46"/>
-      <c r="J46" s="53"/>
+      <c r="J46" s="48"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B47" s="45"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46" t="s">
+      <c r="G47" t="s">
         <v>69</v>
       </c>
-      <c r="H47" s="61">
+      <c r="H47" s="52">
         <f>S2</f>
         <v>3</v>
       </c>
-      <c r="I47" s="46"/>
-      <c r="J47" s="53"/>
+      <c r="J47" s="48"/>
     </row>
     <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" s="45"/>
-      <c r="C48" s="46"/>
-      <c r="D48" s="46"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-      <c r="H48" s="51">
+      <c r="H48" s="23">
         <f>SUM(H46:H47)</f>
         <v>48</v>
       </c>
-      <c r="I48" s="46"/>
-      <c r="J48" s="53"/>
+      <c r="J48" s="48"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B49" s="45"/>
-      <c r="C49" s="46"/>
-      <c r="D49" s="46"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="46"/>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
-      <c r="I49" s="54" t="s">
+      <c r="I49" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="J49" s="55">
+      <c r="J49" s="50">
         <f>SUM(D43*(G43*I43+J43)+(D44*(G44*I44+J44)+(D45*(G45*I45+J45))))</f>
         <v>45</v>
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B50" s="63"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="69">
+      <c r="B50" s="54"/>
+      <c r="C50" s="55"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="59">
         <f>D43*G43+D44*G44+D45*G45</f>
-        <v>22</v>
-      </c>
-      <c r="G50" s="66" t="s">
+        <v>19</v>
+      </c>
+      <c r="G50" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="H50" s="69">
+      <c r="H50" s="59">
         <f>T2</f>
-        <v>22</v>
-      </c>
-      <c r="I50" s="64"/>
-      <c r="J50" s="67"/>
+        <v>19</v>
+      </c>
+      <c r="I50" s="55"/>
+      <c r="J50" s="58"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52" s="23" t="s">
@@ -5490,7 +5377,7 @@
       </c>
       <c r="F52" s="26">
         <f>F50</f>
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
@@ -5648,15 +5535,15 @@
       </c>
       <c r="E57" s="6">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F57" s="37">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G57" s="15">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H57" s="29">
         <f t="shared" si="5"/>
@@ -5671,15 +5558,15 @@
       </c>
       <c r="L57" s="6">
         <f t="shared" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M57" s="19">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N57" s="8">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O57">
         <f t="shared" si="7"/>
@@ -6151,7 +6038,7 @@
       <c r="B87" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C87" s="70">
+      <c r="C87" s="60">
         <f>F55</f>
         <v>0</v>
       </c>
@@ -6159,7 +6046,7 @@
         <f>F62</f>
         <v>0</v>
       </c>
-      <c r="E87" s="71">
+      <c r="E87" s="61">
         <f>E55</f>
         <v>1</v>
       </c>
@@ -6175,7 +6062,7 @@
         <f>F62</f>
         <v>0</v>
       </c>
-      <c r="I87" s="71">
+      <c r="I87" s="61">
         <f>D55</f>
         <v>1</v>
       </c>
@@ -6189,35 +6076,35 @@
       <c r="B88" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C88" s="72">
+      <c r="C88" s="7">
         <f>F56</f>
         <v>2</v>
       </c>
-      <c r="D88" s="46">
+      <c r="D88">
         <f>F63</f>
         <v>2</v>
       </c>
-      <c r="E88" s="47">
+      <c r="E88" s="6">
         <f>E56</f>
         <v>2</v>
       </c>
-      <c r="F88" s="46">
+      <c r="F88">
         <f>COUNT(C63:C68)/D56</f>
         <v>2</v>
       </c>
-      <c r="G88" s="46">
+      <c r="G88">
         <f>H56</f>
         <v>12</v>
       </c>
-      <c r="H88" s="46">
+      <c r="H88">
         <f>SUM(F63:F68)</f>
         <v>12</v>
       </c>
-      <c r="I88" s="47">
+      <c r="I88" s="6">
         <f>D56</f>
         <v>3</v>
       </c>
-      <c r="J88" s="53">
+      <c r="J88" s="48">
         <f>COUNT(C63:C68)/E88</f>
         <v>3</v>
       </c>
@@ -6227,37 +6114,37 @@
       <c r="B89" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C89" s="72">
+      <c r="C89" s="7">
         <f>F57</f>
-        <v>2</v>
-      </c>
-      <c r="D89" s="46">
+        <v>3</v>
+      </c>
+      <c r="D89">
         <f>F69</f>
         <v>2</v>
       </c>
-      <c r="E89" s="47">
+      <c r="E89" s="6">
         <f>E57</f>
-        <v>5</v>
-      </c>
-      <c r="F89" s="46">
+        <v>4</v>
+      </c>
+      <c r="F89">
         <f>COUNT(C69:C83)/D57</f>
         <v>5</v>
       </c>
-      <c r="G89" s="46">
+      <c r="G89">
         <f>H57</f>
         <v>36</v>
       </c>
-      <c r="H89" s="46">
+      <c r="H89">
         <f>SUM(F69:F83)</f>
         <v>36</v>
       </c>
-      <c r="I89" s="47">
+      <c r="I89" s="6">
         <f>D57</f>
         <v>3</v>
       </c>
-      <c r="J89" s="53">
+      <c r="J89" s="48">
         <f>COUNT(C69:C83)/E89</f>
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="K89" s="38"/>
     </row>
@@ -6265,62 +6152,60 @@
       <c r="B90" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="C90" s="72">
+      <c r="C90" s="7">
         <f>C89+G57</f>
-        <v>4</v>
-      </c>
-      <c r="D90" s="46">
+        <v>3</v>
+      </c>
+      <c r="D90">
         <f>F73</f>
         <v>4</v>
       </c>
-      <c r="E90" s="73"/>
-      <c r="F90" s="46"/>
-      <c r="G90" s="46">
+      <c r="E90" s="62"/>
+      <c r="G90">
         <f>SUM(G87:G89)</f>
         <v>48</v>
       </c>
-      <c r="H90" s="51">
+      <c r="H90" s="23">
         <f>SUM(H87:H89)</f>
         <v>48</v>
       </c>
-      <c r="I90" s="46"/>
-      <c r="J90" s="53"/>
+      <c r="J90" s="48"/>
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B91" s="63"/>
-      <c r="C91" s="64"/>
-      <c r="D91" s="64"/>
-      <c r="E91" s="64"/>
-      <c r="F91" s="64"/>
-      <c r="G91" s="64"/>
-      <c r="H91" s="64"/>
-      <c r="I91" s="64"/>
-      <c r="J91" s="67"/>
+      <c r="B91" s="54"/>
+      <c r="C91" s="55"/>
+      <c r="D91" s="55"/>
+      <c r="E91" s="55"/>
+      <c r="F91" s="55"/>
+      <c r="G91" s="55"/>
+      <c r="H91" s="55"/>
+      <c r="I91" s="55"/>
+      <c r="J91" s="58"/>
     </row>
     <row r="92" spans="2:11" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B92" s="74"/>
-      <c r="C92" s="75" t="s">
+      <c r="B92" s="63"/>
+      <c r="C92" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="D92" s="75" t="s">
+      <c r="D92" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="E92" s="75" t="s">
+      <c r="E92" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="F92" s="75" t="s">
+      <c r="F92" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="G92" s="75" t="s">
+      <c r="G92" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="H92" s="75" t="s">
+      <c r="H92" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="I92" s="75" t="s">
+      <c r="I92" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="J92" s="76" t="s">
+      <c r="J92" s="65" t="s">
         <v>97</v>
       </c>
     </row>
@@ -6328,35 +6213,35 @@
       <c r="B93" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C93" s="72">
+      <c r="C93" s="7">
         <f>I21</f>
         <v>0</v>
       </c>
-      <c r="D93" s="46">
+      <c r="D93">
         <f>F62</f>
         <v>0</v>
       </c>
-      <c r="E93" s="47">
+      <c r="E93" s="6">
         <f>G21</f>
         <v>1</v>
       </c>
-      <c r="F93" s="46">
+      <c r="F93">
         <f>E62</f>
         <v>1</v>
       </c>
-      <c r="G93" s="46">
+      <c r="G93">
         <f>C93*E93*I93</f>
         <v>0</v>
       </c>
-      <c r="H93" s="46">
+      <c r="H93">
         <f>F62</f>
         <v>0</v>
       </c>
-      <c r="I93" s="47">
+      <c r="I93" s="6">
         <f>D21</f>
         <v>1</v>
       </c>
-      <c r="J93" s="53">
+      <c r="J93" s="48">
         <v>1</v>
       </c>
     </row>
@@ -6364,35 +6249,35 @@
       <c r="B94" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C94" s="77">
+      <c r="C94" s="66">
         <f t="shared" ref="C94:C95" si="8">I22</f>
         <v>1</v>
       </c>
-      <c r="D94" s="78">
+      <c r="D94" s="67">
         <f>F63</f>
         <v>2</v>
       </c>
-      <c r="E94" s="79">
+      <c r="E94" s="68">
         <f>G22</f>
         <v>3</v>
       </c>
-      <c r="F94" s="78">
+      <c r="F94" s="67">
         <f>2</f>
         <v>2</v>
       </c>
-      <c r="G94" s="59">
+      <c r="G94" s="12">
         <f>(C94*E94+J22)*I94</f>
         <v>10</v>
       </c>
-      <c r="H94" s="78">
+      <c r="H94" s="67">
         <f>SUM(F63:F68)</f>
         <v>12</v>
       </c>
-      <c r="I94" s="47">
+      <c r="I94" s="6">
         <f t="shared" ref="I94:I95" si="9">D22</f>
         <v>2</v>
       </c>
-      <c r="J94" s="53">
+      <c r="J94" s="48">
         <v>2</v>
       </c>
     </row>
@@ -6400,69 +6285,65 @@
       <c r="B95" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="C95" s="72">
+      <c r="C95" s="7">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="D95" s="46">
+        <v>2</v>
+      </c>
+      <c r="D95">
         <f>F69</f>
         <v>2</v>
       </c>
-      <c r="E95" s="47">
+      <c r="E95" s="6">
         <f>G23</f>
-        <v>5</v>
-      </c>
-      <c r="F95" s="46">
         <v>4</v>
       </c>
-      <c r="G95" s="46">
+      <c r="F95">
+        <v>4</v>
+      </c>
+      <c r="G95">
         <f>(C95*E95+J23)*I95</f>
         <v>36</v>
       </c>
-      <c r="H95" s="46">
+      <c r="H95">
         <f>SUM(F69:F83)</f>
         <v>36</v>
       </c>
-      <c r="I95" s="47">
+      <c r="I95" s="6">
         <f t="shared" si="9"/>
         <v>4</v>
       </c>
-      <c r="J95" s="53">
+      <c r="J95" s="48">
         <v>4</v>
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B96" s="45"/>
-      <c r="C96" s="72"/>
-      <c r="D96" s="46"/>
-      <c r="E96" s="46"/>
-      <c r="F96" s="46"/>
-      <c r="G96" s="78">
+      <c r="C96" s="7"/>
+      <c r="G96" s="67">
         <f>SUM(G93:G95)</f>
         <v>46</v>
       </c>
-      <c r="H96" s="51">
+      <c r="H96" s="23">
         <f>SUM(H93:H95)</f>
         <v>48</v>
       </c>
-      <c r="I96" s="46"/>
-      <c r="J96" s="53"/>
+      <c r="J96" s="48"/>
     </row>
     <row r="97" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B97" s="63"/>
-      <c r="C97" s="80"/>
-      <c r="D97" s="64"/>
-      <c r="E97" s="64"/>
-      <c r="F97" s="64"/>
-      <c r="G97" s="81" t="s">
+      <c r="B97" s="54"/>
+      <c r="C97" s="69"/>
+      <c r="D97" s="55"/>
+      <c r="E97" s="55"/>
+      <c r="F97" s="55"/>
+      <c r="G97" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="H97" s="64"/>
-      <c r="I97" s="64"/>
-      <c r="J97" s="67"/>
+      <c r="H97" s="55"/>
+      <c r="I97" s="55"/>
+      <c r="J97" s="58"/>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B98" s="82" t="s">
+      <c r="B98" s="71" t="s">
         <v>102</v>
       </c>
     </row>
